--- a/data/lab4-task3.xlsx
+++ b/data/lab4-task3.xlsx
@@ -8,25 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teaching\431\2024-431\431-labs-2024\431-lab4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD4538C-143E-48FC-AD2A-143E784382C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841F3EF2-9163-40DA-89DC-A28631E48B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F2BCF0-0F15-49F0-A2F8-8643772E4EA6}"/>
+    <workbookView xWindow="29955" yWindow="1995" windowWidth="22350" windowHeight="12195" xr2:uid="{40F2BCF0-0F15-49F0-A2F8-8643772E4EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="lab07_trial_v2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -36,9 +25,6 @@
     <t>patientid</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>partner</t>
   </si>
   <si>
@@ -955,6 +941,9 @@
   </si>
   <si>
     <t>P300</t>
+  </si>
+  <si>
+    <t>group_rx</t>
   </si>
 </sst>
 </file>
@@ -1764,12 +1753,12 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1781,30 +1770,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>61</v>
@@ -1818,13 +1807,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -1838,13 +1827,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>57</v>
@@ -1858,13 +1847,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>64</v>
@@ -1878,13 +1867,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>57</v>
@@ -1898,13 +1887,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>57</v>
@@ -1918,13 +1907,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>63</v>
@@ -1938,13 +1927,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -1958,13 +1947,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>63</v>
@@ -1978,13 +1967,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>64</v>
@@ -1998,13 +1987,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>61</v>
@@ -2018,13 +2007,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>56</v>
@@ -2038,13 +2027,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>62</v>
@@ -2058,13 +2047,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>65</v>
@@ -2078,13 +2067,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -2098,13 +2087,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>58</v>
@@ -2118,13 +2107,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>59</v>
@@ -2138,13 +2127,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>64</v>
@@ -2158,13 +2147,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>58</v>
@@ -2178,13 +2167,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>56</v>
@@ -2198,13 +2187,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>65</v>
@@ -2218,13 +2207,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>59</v>
@@ -2238,13 +2227,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>64</v>
@@ -2258,13 +2247,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>55</v>
@@ -2278,13 +2267,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>63</v>
@@ -2298,13 +2287,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>56</v>
@@ -2318,13 +2307,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>63</v>
@@ -2338,13 +2327,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>61</v>
@@ -2358,13 +2347,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>59</v>
@@ -2378,13 +2367,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>63</v>
@@ -2398,13 +2387,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>55</v>
@@ -2418,13 +2407,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>61</v>
@@ -2438,13 +2427,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>65</v>
@@ -2458,13 +2447,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>63</v>
@@ -2478,13 +2467,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>64</v>
@@ -2498,13 +2487,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>58</v>
@@ -2518,13 +2507,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>56</v>
@@ -2538,13 +2527,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>55</v>
@@ -2558,13 +2547,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>64</v>
@@ -2578,13 +2567,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>63</v>
@@ -2598,13 +2587,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>62</v>
@@ -2618,13 +2607,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>65</v>
@@ -2638,13 +2627,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
         <v>56</v>
@@ -2658,13 +2647,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>64</v>
@@ -2678,13 +2667,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>58</v>
@@ -2698,13 +2687,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>60</v>
@@ -2718,13 +2707,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>62</v>
@@ -2738,13 +2727,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>60</v>
@@ -2758,13 +2747,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>59</v>
@@ -2778,13 +2767,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>65</v>
@@ -2798,13 +2787,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>63</v>
@@ -2818,13 +2807,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>56</v>
@@ -2838,13 +2827,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>61</v>
@@ -2858,13 +2847,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>62</v>
@@ -2878,13 +2867,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>61</v>
@@ -2898,13 +2887,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>57</v>
@@ -2918,13 +2907,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -2938,13 +2927,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>64</v>
@@ -2958,13 +2947,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>56</v>
@@ -2978,13 +2967,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>59</v>
@@ -2998,13 +2987,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>56</v>
@@ -3018,13 +3007,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>60</v>
@@ -3038,13 +3027,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -3058,13 +3047,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>57</v>
@@ -3078,13 +3067,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>57</v>
@@ -3098,13 +3087,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>57</v>
@@ -3118,13 +3107,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>57</v>
@@ -3138,13 +3127,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>61</v>
@@ -3158,13 +3147,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3178,13 +3167,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>59</v>
@@ -3198,13 +3187,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>62</v>
@@ -3218,13 +3207,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73">
         <v>59</v>
@@ -3238,13 +3227,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>55</v>
@@ -3258,13 +3247,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>58</v>
@@ -3278,13 +3267,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>62</v>
@@ -3298,13 +3287,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>56</v>
@@ -3318,13 +3307,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>59</v>
@@ -3338,13 +3327,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>56</v>
@@ -3358,13 +3347,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <v>65</v>
@@ -3378,13 +3367,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81">
         <v>58</v>
@@ -3398,13 +3387,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>61</v>
@@ -3418,13 +3407,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>64</v>
@@ -3438,13 +3427,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>63</v>
@@ -3458,13 +3447,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85">
         <v>57</v>
@@ -3478,13 +3467,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>59</v>
@@ -3498,13 +3487,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>62</v>
@@ -3518,13 +3507,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>62</v>
@@ -3538,13 +3527,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>60</v>
@@ -3558,13 +3547,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>61</v>
@@ -3578,13 +3567,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91">
         <v>55</v>
@@ -3598,13 +3587,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92">
         <v>65</v>
@@ -3618,13 +3607,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>62</v>
@@ -3638,13 +3627,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>56</v>
@@ -3658,13 +3647,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95">
         <v>61</v>
@@ -3678,13 +3667,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>60</v>
@@ -3698,13 +3687,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>57</v>
@@ -3718,13 +3707,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98">
         <v>55</v>
@@ -3738,13 +3727,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>56</v>
@@ -3758,13 +3747,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100">
         <v>56</v>
@@ -3778,13 +3767,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>58</v>
@@ -3798,13 +3787,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102">
         <v>60</v>
@@ -3818,13 +3807,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103">
         <v>57</v>
@@ -3838,13 +3827,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>57</v>
@@ -3858,13 +3847,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>57</v>
@@ -3878,13 +3867,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106">
         <v>64</v>
@@ -3898,13 +3887,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107">
         <v>55</v>
@@ -3918,13 +3907,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>64</v>
@@ -3938,13 +3927,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D109">
         <v>63</v>
@@ -3958,13 +3947,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110">
         <v>64</v>
@@ -3978,13 +3967,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>64</v>
@@ -3998,13 +3987,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112">
         <v>64</v>
@@ -4018,13 +4007,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>56</v>
@@ -4038,13 +4027,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114">
         <v>62</v>
@@ -4058,13 +4047,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115">
         <v>58</v>
@@ -4078,13 +4067,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116">
         <v>55</v>
@@ -4098,13 +4087,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117">
         <v>57</v>
@@ -4118,13 +4107,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>60</v>
@@ -4138,13 +4127,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119">
         <v>65</v>
@@ -4158,13 +4147,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D120">
         <v>63</v>
@@ -4178,13 +4167,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>57</v>
@@ -4198,13 +4187,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <v>59</v>
@@ -4218,13 +4207,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123">
         <v>61</v>
@@ -4238,13 +4227,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>60</v>
@@ -4258,13 +4247,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125">
         <v>62</v>
@@ -4278,13 +4267,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126">
         <v>65</v>
@@ -4298,13 +4287,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127">
         <v>64</v>
@@ -4318,13 +4307,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128">
         <v>59</v>
@@ -4338,13 +4327,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129">
         <v>58</v>
@@ -4358,13 +4347,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130">
         <v>57</v>
@@ -4378,13 +4367,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D131">
         <v>64</v>
@@ -4398,13 +4387,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132">
         <v>59</v>
@@ -4418,13 +4407,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D133">
         <v>61</v>
@@ -4438,13 +4427,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D134">
         <v>64</v>
@@ -4458,13 +4447,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D135">
         <v>56</v>
@@ -4478,13 +4467,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136">
         <v>65</v>
@@ -4498,13 +4487,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137">
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>58</v>
@@ -4518,13 +4507,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138">
         <v>60</v>
@@ -4538,13 +4527,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139">
         <v>57</v>
@@ -4558,13 +4547,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D140">
         <v>65</v>
@@ -4578,13 +4567,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D141">
         <v>65</v>
@@ -4598,13 +4587,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>60</v>
@@ -4618,13 +4607,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143">
         <v>62</v>
@@ -4638,13 +4627,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144">
         <v>61</v>
@@ -4658,13 +4647,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D145">
         <v>64</v>
@@ -4678,13 +4667,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D146">
         <v>65</v>
@@ -4698,13 +4687,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D147">
         <v>55</v>
@@ -4718,13 +4707,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148">
         <v>56</v>
@@ -4738,13 +4727,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D149">
         <v>65</v>
@@ -4758,13 +4747,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D150">
         <v>62</v>
@@ -4778,13 +4767,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D151">
         <v>55</v>
@@ -4798,13 +4787,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D152">
         <v>58</v>
@@ -4818,13 +4807,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D153">
         <v>57</v>
@@ -4838,13 +4827,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154">
         <v>58</v>
@@ -4858,13 +4847,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155">
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -4878,13 +4867,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -4898,13 +4887,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D157">
         <v>56</v>
@@ -4918,13 +4907,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D158">
         <v>60</v>
@@ -4938,13 +4927,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D159">
         <v>64</v>
@@ -4958,13 +4947,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160">
         <v>61</v>
@@ -4978,13 +4967,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161">
         <v>55</v>
@@ -4998,13 +4987,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162">
         <v>60</v>
@@ -5018,13 +5007,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D163">
         <v>61</v>
@@ -5038,13 +5027,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164">
         <v>58</v>
@@ -5058,13 +5047,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B165">
         <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165">
         <v>62</v>
@@ -5078,13 +5067,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166">
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166">
         <v>62</v>
@@ -5098,13 +5087,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167">
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167">
         <v>56</v>
@@ -5118,13 +5107,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D168">
         <v>65</v>
@@ -5138,13 +5127,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D169">
         <v>62</v>
@@ -5158,13 +5147,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D170">
         <v>64</v>
@@ -5178,13 +5167,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B171">
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D171">
         <v>57</v>
@@ -5198,13 +5187,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D172">
         <v>60</v>
@@ -5218,13 +5207,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D173">
         <v>65</v>
@@ -5238,13 +5227,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D174">
         <v>62</v>
@@ -5258,13 +5247,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D175">
         <v>64</v>
@@ -5278,13 +5267,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D176">
         <v>58</v>
@@ -5298,13 +5287,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D177">
         <v>58</v>
@@ -5318,13 +5307,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D178">
         <v>58</v>
@@ -5338,13 +5327,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D179">
         <v>56</v>
@@ -5358,13 +5347,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D180">
         <v>57</v>
@@ -5378,13 +5367,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181">
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D181">
         <v>65</v>
@@ -5398,13 +5387,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D182">
         <v>61</v>
@@ -5418,13 +5407,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183">
         <v>61</v>
@@ -5438,13 +5427,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D184">
         <v>61</v>
@@ -5458,13 +5447,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D185">
         <v>65</v>
@@ -5478,13 +5467,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D186">
         <v>62</v>
@@ -5498,13 +5487,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D187">
         <v>58</v>
@@ -5518,13 +5507,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D188">
         <v>65</v>
@@ -5538,13 +5527,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <v>64</v>
@@ -5558,13 +5547,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190">
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D190">
         <v>59</v>
@@ -5578,13 +5567,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D191">
         <v>58</v>
@@ -5598,13 +5587,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192">
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D192">
         <v>57</v>
@@ -5618,13 +5607,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193">
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D193">
         <v>64</v>
@@ -5638,13 +5627,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D194">
         <v>58</v>
@@ -5658,13 +5647,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D195">
         <v>63</v>
@@ -5678,13 +5667,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D196">
         <v>60</v>
@@ -5698,13 +5687,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D197">
         <v>57</v>
@@ -5718,13 +5707,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198">
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D198">
         <v>57</v>
@@ -5738,13 +5727,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D199">
         <v>55</v>
@@ -5758,13 +5747,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B200">
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D200">
         <v>64</v>
@@ -5778,13 +5767,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D201">
         <v>65</v>
@@ -5798,13 +5787,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202">
         <v>55</v>
@@ -5818,13 +5807,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203">
         <v>61</v>
@@ -5838,13 +5827,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D204">
         <v>55</v>
@@ -5858,13 +5847,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205">
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D205">
         <v>63</v>
@@ -5878,13 +5867,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B206">
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D206">
         <v>65</v>
@@ -5898,13 +5887,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D207">
         <v>55</v>
@@ -5918,13 +5907,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B208">
         <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D208">
         <v>55</v>
@@ -5938,13 +5927,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D209">
         <v>65</v>
@@ -5958,13 +5947,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B210">
         <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D210">
         <v>65</v>
@@ -5978,13 +5967,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D211">
         <v>62</v>
@@ -5998,13 +5987,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B212">
         <v>3</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D212">
         <v>64</v>
@@ -6018,13 +6007,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B213">
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D213">
         <v>63</v>
@@ -6038,13 +6027,13 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D214">
         <v>63</v>
@@ -6058,13 +6047,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D215">
         <v>56</v>
@@ -6078,13 +6067,13 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B216">
         <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D216">
         <v>60</v>
@@ -6098,13 +6087,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B217">
         <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D217">
         <v>63</v>
@@ -6118,13 +6107,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D218">
         <v>58</v>
@@ -6138,13 +6127,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B219">
         <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D219">
         <v>59</v>
@@ -6158,13 +6147,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D220">
         <v>60</v>
@@ -6178,13 +6167,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D221">
         <v>58</v>
@@ -6198,13 +6187,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B222">
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D222">
         <v>55</v>
@@ -6218,13 +6207,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B223">
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D223">
         <v>59</v>
@@ -6238,13 +6227,13 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D224">
         <v>63</v>
@@ -6258,13 +6247,13 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D225">
         <v>64</v>
@@ -6278,13 +6267,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B226">
         <v>3</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D226">
         <v>58</v>
@@ -6298,13 +6287,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D227">
         <v>64</v>
@@ -6318,13 +6307,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D228">
         <v>65</v>
@@ -6338,13 +6327,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B229">
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D229">
         <v>56</v>
@@ -6358,13 +6347,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D230">
         <v>57</v>
@@ -6378,13 +6367,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B231">
         <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D231">
         <v>56</v>
@@ -6398,13 +6387,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B232">
         <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D232">
         <v>64</v>
@@ -6418,13 +6407,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B233">
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D233">
         <v>60</v>
@@ -6438,13 +6427,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D234">
         <v>62</v>
@@ -6458,13 +6447,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D235">
         <v>64</v>
@@ -6478,13 +6467,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B236">
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D236">
         <v>60</v>
@@ -6498,13 +6487,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B237">
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D237">
         <v>55</v>
@@ -6518,13 +6507,13 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B238">
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D238">
         <v>56</v>
@@ -6538,13 +6527,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B239">
         <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D239">
         <v>55</v>
@@ -6558,13 +6547,13 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B240">
         <v>3</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D240">
         <v>57</v>
@@ -6578,13 +6567,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D241">
         <v>59</v>
@@ -6598,13 +6587,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B242">
         <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D242">
         <v>64</v>
@@ -6618,13 +6607,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B243">
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D243">
         <v>65</v>
@@ -6638,13 +6627,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D244">
         <v>62</v>
@@ -6658,13 +6647,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B245">
         <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D245">
         <v>63</v>
@@ -6678,13 +6667,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B246">
         <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D246">
         <v>64</v>
@@ -6698,13 +6687,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D247">
         <v>56</v>
@@ -6718,13 +6707,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B248">
         <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D248">
         <v>57</v>
@@ -6738,13 +6727,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D249">
         <v>56</v>
@@ -6758,13 +6747,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D250">
         <v>60</v>
@@ -6778,13 +6767,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D251">
         <v>56</v>
@@ -6798,13 +6787,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B252">
         <v>3</v>
       </c>
       <c r="C252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D252">
         <v>62</v>
@@ -6818,13 +6807,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B253">
         <v>3</v>
       </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D253">
         <v>65</v>
@@ -6838,13 +6827,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B254">
         <v>3</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D254">
         <v>64</v>
@@ -6858,13 +6847,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D255">
         <v>63</v>
@@ -6878,13 +6867,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B256">
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D256">
         <v>61</v>
@@ -6898,13 +6887,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B257">
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D257">
         <v>55</v>
@@ -6918,13 +6907,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258">
         <v>56</v>
@@ -6938,13 +6927,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D259">
         <v>56</v>
@@ -6958,13 +6947,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D260">
         <v>60</v>
@@ -6978,13 +6967,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D261">
         <v>63</v>
@@ -6998,13 +6987,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D262">
         <v>61</v>
@@ -7018,13 +7007,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D263">
         <v>62</v>
@@ -7038,13 +7027,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B264">
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D264">
         <v>61</v>
@@ -7058,13 +7047,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D265">
         <v>60</v>
@@ -7078,13 +7067,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D266">
         <v>63</v>
@@ -7098,13 +7087,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B267">
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D267">
         <v>58</v>
@@ -7118,13 +7107,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D268">
         <v>55</v>
@@ -7138,13 +7127,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B269">
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D269">
         <v>61</v>
@@ -7158,13 +7147,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B270">
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D270">
         <v>57</v>
@@ -7178,13 +7167,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B271">
         <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D271">
         <v>63</v>
@@ -7198,13 +7187,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B272">
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D272">
         <v>60</v>
@@ -7218,13 +7207,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B273">
         <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D273">
         <v>55</v>
@@ -7238,13 +7227,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D274">
         <v>62</v>
@@ -7258,13 +7247,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D275">
         <v>57</v>
@@ -7278,13 +7267,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D276">
         <v>57</v>
@@ -7298,13 +7287,13 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D277">
         <v>59</v>
@@ -7318,13 +7307,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D278">
         <v>59</v>
@@ -7338,13 +7327,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D279">
         <v>55</v>
@@ -7358,13 +7347,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D280">
         <v>56</v>
@@ -7378,13 +7367,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B281">
         <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D281">
         <v>58</v>
@@ -7398,13 +7387,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D282">
         <v>59</v>
@@ -7418,13 +7407,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B283">
         <v>2</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D283">
         <v>55</v>
@@ -7438,13 +7427,13 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D284">
         <v>64</v>
@@ -7458,13 +7447,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D285">
         <v>65</v>
@@ -7478,13 +7467,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D286">
         <v>61</v>
@@ -7498,13 +7487,13 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D287">
         <v>61</v>
@@ -7518,13 +7507,13 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B288">
         <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D288">
         <v>62</v>
@@ -7538,13 +7527,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B289">
         <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D289">
         <v>63</v>
@@ -7558,13 +7547,13 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B290">
         <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D290">
         <v>64</v>
@@ -7578,13 +7567,13 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D291">
         <v>63</v>
@@ -7598,13 +7587,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B292">
         <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D292">
         <v>64</v>
@@ -7618,13 +7607,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D293">
         <v>65</v>
@@ -7638,13 +7627,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D294">
         <v>56</v>
@@ -7658,13 +7647,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B295">
         <v>2</v>
       </c>
       <c r="C295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D295">
         <v>61</v>
@@ -7678,13 +7667,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B296">
         <v>3</v>
       </c>
       <c r="C296" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D296">
         <v>59</v>
@@ -7698,13 +7687,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D297">
         <v>65</v>
@@ -7718,13 +7707,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B298">
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D298">
         <v>61</v>
@@ -7738,13 +7727,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B299">
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D299">
         <v>60</v>
@@ -7758,13 +7747,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D300">
         <v>59</v>
@@ -7778,13 +7767,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B301">
         <v>3</v>
       </c>
       <c r="C301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D301">
         <v>65</v>
